--- a/misc/MikvesNewTest.xlsx
+++ b/misc/MikvesNewTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avihaimor/Desktop/Itim_project/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD1ADBF-39D2-0E4C-8D64-A1A20675666F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943E4F21-914B-9343-BCF8-2C5AC94600EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2032,10 +2032,16 @@
   <dimension ref="A1:N122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:N2"/>
+      <selection activeCell="C11" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" customWidth="1"/>
+    <col min="8" max="8" width="35.1640625" customWidth="1"/>
+    <col min="9" max="9" width="62" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
